--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.4.AESP_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.4.AESP_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA732C4-97A2-4FC0-87D9-86A510F8CBE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="6885" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="Lista_meses">[1]Variables!$AA$7:$AA$18</definedName>
     <definedName name="Tabla_mes">[1]Variables!$AA$7:$AB$18</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Sector</t>
   </si>
@@ -122,24 +123,6 @@
     <t>Auditor</t>
   </si>
   <si>
-    <t>GEI Auditoría Base</t>
-  </si>
-  <si>
-    <t>GEI Auditoría Iniciativa</t>
-  </si>
-  <si>
-    <t>Linea Base Emisiones GEI (tCO2e)</t>
-  </si>
-  <si>
-    <t>Iniciativa de Mitigación Emisiones GEI (tCO2e)</t>
-  </si>
-  <si>
-    <t>Total Emisiones de Efecto Invernadero antes de la Iniciativa</t>
-  </si>
-  <si>
-    <t>Total de Emisiones de la nueva iniciativa</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -177,18 +160,47 @@
       <t>AESP</t>
     </r>
   </si>
+  <si>
+    <t>Institución</t>
+  </si>
+  <si>
+    <t>Auditores SAC</t>
+  </si>
+  <si>
+    <t>Energéticos SA</t>
+  </si>
+  <si>
+    <t>Pedro Perez</t>
+  </si>
+  <si>
+    <t>Juan Ramos</t>
+  </si>
+  <si>
+    <t>Green tech</t>
+  </si>
+  <si>
+    <t>Maria Pardo</t>
+  </si>
+  <si>
+    <t>Energía verde</t>
+  </si>
+  <si>
+    <t>GEI por reducido Auditoría</t>
+  </si>
+  <si>
+    <t>GEI reducido por Auditoría ()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +253,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -287,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -308,19 +313,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -360,40 +352,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,7 +381,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -413,33 +389,9 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,6 +400,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -610,12 +566,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B2:D6" totalsRowShown="0">
-  <autoFilter ref="B2:D6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B2:D6" totalsRowShown="0">
+  <autoFilter ref="B2:D6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Sector"/>
-    <tableColumn id="2" name="Encargado"/>
-    <tableColumn id="3" name="Auditoría"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sector"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Encargado"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Auditoría"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -917,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -989,327 +945,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>26</v>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="2:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="F7" s="10">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="26" t="s">
+      <c r="H7" s="12">
+        <f>F7-G7</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="F8" s="10">
+        <v>76</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" ref="H8:H13" si="0">F8-G8</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="F9" s="10">
+        <v>237</v>
+      </c>
+      <c r="G9" s="10">
+        <v>29</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>2018</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="10">
+        <v>187</v>
+      </c>
+      <c r="G10" s="10">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11">
-        <v>100</v>
-      </c>
-      <c r="F7" s="11">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11">
-        <f>E7</f>
-        <v>100</v>
-      </c>
-      <c r="H7" s="11">
-        <f>F7</f>
-        <v>16</v>
-      </c>
-      <c r="I7" s="13">
-        <f>G7-H7</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="E11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10">
+        <v>215</v>
+      </c>
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>2018</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10">
+        <v>98</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11">
-        <v>76</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <f>E8</f>
-        <v>76</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" ref="H8:H13" si="0">F8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" ref="I8:I13" si="1">G8-H8</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11">
-        <v>237</v>
-      </c>
-      <c r="F9" s="11">
-        <v>29</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" ref="G9:G13" si="2">E9</f>
-        <v>237</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="E13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="10">
+        <v>391</v>
+      </c>
+      <c r="G13" s="10">
+        <v>30.8</v>
+      </c>
+      <c r="H13" s="12">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="I9" s="13">
-        <f t="shared" si="1"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="11">
-        <v>187</v>
-      </c>
-      <c r="F10" s="11">
-        <v>39</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="I10" s="13">
-        <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11">
-        <v>215</v>
-      </c>
-      <c r="F11" s="11">
-        <v>10</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="11">
-        <v>98</v>
-      </c>
-      <c r="F12" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="1"/>
-        <v>94.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11">
-        <v>391</v>
-      </c>
-      <c r="F13" s="11">
-        <v>30.8</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="2"/>
-        <v>391</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>30.8</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="1"/>
         <v>360.2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18">
-        <f>SUM(I7:I13)</f>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16">
+        <f>SUM(H7:H13)</f>
         <v>1175.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G4:G5"/>
+  <mergeCells count="1">
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1317,13 +1223,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Variables!$D$3:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>C7:C13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Variables!$C$3:$C$4</xm:f>
           </x14:formula1>
